--- a/backend/rdd/RDD_Brejinho.xlsx
+++ b/backend/rdd/RDD_Brejinho.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Projetos\email-auto\backend\rdd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52188DBD-314B-49DC-B920-251578A984B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8E36DA-C984-4665-808F-D9AEA8EEEE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,7 +463,7 @@
   <dimension ref="A1:G890"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/backend/rdd/RDD_Brejinho.xlsx
+++ b/backend/rdd/RDD_Brejinho.xlsx
@@ -1,50 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="2022" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="RDD" state="visible" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2022'!A1:G877</definedName>
-  </definedNames>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>TIPO_DE_SERVICO</t>
+  </si>
+  <si>
+    <t>LOCALIDADE</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>HORA_FIM</t>
+  </si>
+  <si>
+    <t>TMA</t>
+  </si>
+  <si>
+    <t>EQUIPE_EXECUTORA</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>Teste</t>
+  </si>
+  <si>
+    <t>Brejinho</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>01:00</t>
+  </si>
+  <si>
+    <t>Rivaldo</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -68,13 +86,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -399,155 +425,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>TIPO_DE_SERVICO</v>
-      </c>
-      <c r="B1" t="str">
-        <v>LOCALIDADE</v>
-      </c>
-      <c r="C1" t="str">
-        <v>HORA_INICIO</v>
-      </c>
-      <c r="D1" t="str">
-        <v>HORA_FIM</v>
-      </c>
-      <c r="E1" t="str">
-        <v>TMA</v>
-      </c>
-      <c r="F1" t="str">
-        <v>EQUIPE_EXECUTORA</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Data</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Manutenção no roteador</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Brejinho</v>
-      </c>
-      <c r="C2" t="str">
-        <v>09:00</v>
-      </c>
-      <c r="D2" t="str">
-        <v>10:00</v>
-      </c>
-      <c r="E2" t="str">
-        <v>01:00</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Rivaldo Souza</v>
-      </c>
-      <c r="G2" t="str">
-        <v>19/4/2022</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Verificação da antena</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Brejinhp</v>
-      </c>
-      <c r="C3" t="str">
-        <v>08:00</v>
-      </c>
-      <c r="D3" t="str">
-        <v>09:30</v>
-      </c>
-      <c r="E3" t="str">
-        <v>01:30</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Rivaldo Souza</v>
-      </c>
-      <c r="G3" t="str">
-        <v>19/4/2022</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Teste de Velocidade</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Mussambe</v>
-      </c>
-      <c r="C4" t="str">
-        <v>12:00</v>
-      </c>
-      <c r="D4" t="str">
-        <v>13:00</v>
-      </c>
-      <c r="E4" t="str">
-        <v>01:00</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Rivaldo</v>
-      </c>
-      <c r="G4" t="str">
-        <v>19/4/2022</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Mais uma tarefa</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Brejinho</v>
-      </c>
-      <c r="C5" t="str">
-        <v>08:00</v>
-      </c>
-      <c r="D5" t="str">
-        <v>09:00</v>
-      </c>
-      <c r="E5" t="str">
-        <v>01:00</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Rivaldo Souza</v>
-      </c>
-      <c r="G5" t="str">
-        <v>19/4/2022</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Mais um teste</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Santa terezinha</v>
-      </c>
-      <c r="C6" t="str">
-        <v>07:00</v>
-      </c>
-      <c r="D6" t="str">
-        <v>08:00</v>
-      </c>
-      <c r="E6" t="str">
-        <v>01:00</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Rivaldo</v>
-      </c>
-      <c r="G6" t="str">
-        <v>19/4/2022</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G877"/>
-  <pageMargins left="0.5118110236220472" right="0.5118110236220472" top="0.7874015748031497" bottom="0.7874015748031497" header="0" footer="0"/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
-  </ignoredErrors>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>